--- a/graficas.xlsx
+++ b/graficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s5349\Desktop\TC S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24399DD3-232D-425B-8D9B-7EE4113724D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49923446-5685-4A4F-B6BF-717E97031DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8D9369CB-AD01-4482-AD58-D623BE7F36B4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{8D9369CB-AD01-4482-AD58-D623BE7F36B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ejercicio1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +81,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3219,73 +3238,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABD2FE2-E0BA-4C35-A800-90B2EE3A04DD}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6">
+      <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8">
+      <c r="C8" s="2">
         <v>10000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
+      <c r="C9" s="2">
         <v>100000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>79.375</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1000000</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3299,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE013320-918E-421C-B251-FA91D6531EF1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3311,66 +3330,66 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7">
+      <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
+      <c r="C9" s="2">
         <v>10000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10">
+      <c r="C10" s="2">
         <v>100000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1000000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3384,73 +3403,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A0640-A392-47D0-BB48-1F8F8BE7A2BF}">
   <dimension ref="D4:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7">
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9">
+      <c r="D9" s="2">
         <v>10000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10">
+      <c r="D10" s="2">
         <v>100000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2.2810000000000001</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1000000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>242.18700000000001</v>
       </c>
     </row>
